--- a/local/wms/data/warehouse_area.xlsx
+++ b/local/wms/data/warehouse_area.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22800" windowHeight="12215"/>
+    <workbookView windowWidth="24100" windowHeight="10180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="仓库号命名规则" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="86">
   <si>
     <t>仓库号</t>
   </si>
@@ -40,7 +41,10 @@
     <t>仓间储存危险化学品危险性类别</t>
   </si>
   <si>
-    <t>HS01</t>
+    <t>危险货物类别</t>
+  </si>
+  <si>
+    <t>仓库二</t>
   </si>
   <si>
     <t>04-21-01,04-22-01,04-23-01,04-24-01,04-25-01,04-26-01,04-27-01,04-99-00,04-33-01,04-22-02,04-22-03,04-22-04,04-22-05,04-26-02,04-26-03,04-26-04,04-26-05</t>
@@ -61,6 +65,9 @@
     <t>08-02-01,08-02-02,08-02-03,08-02-04,08-02-05,08-03-01,08-04-01,08-05-01,08-06-01,08-07-01,08-08-01,08-09-01,08-10-01,08-11-01,08-12-01,08-13-01,08-14-01,08-15-01,08-16-01,08-17-01,08-18-01,08-19-01,08-20-01,08-21-01,08-22-01,08-23-01,08-24-01,08-25-01,08-26-01,08-27-01,08-28-01,08-29-01,08-30-01,08-31-01,08-32-01,08-33-01,08-34-01,08-35-01,08-36-01,08-37-01,08-38-01,08-39-01,08-40-01,08-41-01,08-42-01,08-43-01,08-44-01,08-45-01,08-46-01,08-47-01,08-48-01,08-49-01,08-50-01,08-51-01,08-52-01,08-53-01,08-54-01,08-55-01,08-56-01,08-57-01,08-58-01,08-59-01,08-60-01,08-61-01,08-62-01,08-63-01,08-64-01,08-65-01,08-66-01,08-99-00,08-05-03,08-49-03,08-57-03,08-59-03,08-39-02,08-39-03,08-39-04,08-39-05,08-57-02,08-57-04,08-57-05,08-59-02,08-59-04,08-59-05</t>
   </si>
   <si>
+    <t>仓库三</t>
+  </si>
+  <si>
     <t>11-03-01~12-01~05-01~48,11-04-01~12-01~05-01~48,11-05-01~12-01~05-01~48,11-06-01~12-01~05-01~48,11-07-01~12-01~05-01~48,11-08-01~12-01~05-01~48,11-09-01~12-01~05-01~48,11-10-01~12-01~05-01~48,11-11-01~12-01~05-01~48,11-12-01~12-01~05-01~48,11-13-01~12-01~05-01~48,11-14-01~12-01~05-01~48,11-15-01~12-01~05-01~48,11-16-01~12-01~05-01~48,11-17-01~12-01~05-01~48,11-18-01~12-01~05-01~48,11-19-01~12-01~05-01~48,11-20-01~12-01~05-01~48,11-21-01~12-01~05-01~48,11-22-01~12-01~05-01~48,11-99-00</t>
   </si>
   <si>
@@ -73,6 +80,9 @@
     <t>13-01-01-01-01,13-01-01-01-02,13-01-01-02-01,13-01-01-02-02,13-01-01-03-01,13-01-01-03-02,13-01-01-04-01,13-01-01-04-02,13-01-02-01-01,13-01-02-01-02,13-01-02-02-01,13-01-02-02-02,13-01-02-03-01,13-01-02-03-02,13-01-02-04-01,13-01-02-04-02,13-01-03-01-01,13-01-03-01-02,13-01-03-02-01,13-01-03-02-02,13-01-03-03-01,13-01-03-03-02,13-01-03-04-01,13-01-03-04-02,13-01-04-01-01,13-01-04-01-02,13-01-04-02-01,13-01-04-02-02,13-01-04-03-01,13-01-04-03-02,13-01-04-04-01,13-01-04-04-02,13-01-05-01-01,13-01-05-01-02,13-01-05-02-01,13-01-05-02-02,13-01-05-03-01,13-01-05-03-02,13-01-05-04-01,13-01-05-04-02,13-01-06-01-01,13-01-06-01-02,13-01-06-02-01,13-01-06-02-02,13-01-06-03-01,13-01-06-03-02,13-01-06-04-01,13-01-06-04-02,13-01-07-01-02,13-01-07-03-01,13-01-07-03-02,13-01-07-04-01,13-01-07-04-02,13-01-08-01-01,13-01-08-01-02,13-01-08-02-01,13-01-08-02-02,13-01-08-03-01,13-01-08-03-02,13-01-08-04-01,13-01-08-04-02,13-01-09-01-01,13-01-09-01-02,13-01-09-02-01,13-01-09-02-02,13-01-09-03-01,13-01-09-03-02,13-01-09-04-01,13-01-09-04-02,13-01-10-01-01,13-01-10-01-02,13-01-10-02-01,13-01-10-02-02,13-01-10-03-01,13-01-10-03-02,13-01-10-04-01,13-01-10-04-02,13-01-11-01-01,13-01-11-01-02,13-01-11-02-01,13-01-11-02-02,13-01-11-03-01,13-01-11-03-02,13-01-11-04-01,13-01-11-04-02,13-01-12-01-01,13-01-12-01-02,13-01-12-02-01,13-01-12-02-02,13-01-12-03-01,13-01-12-03-02,13-01-12-04-01,13-01-12-04-02,13-01-13-01-01,13-01-13-01-02,13-01-13-02-01,13-01-13-02-02,13-01-13-03-01,13-01-13-03-02,13-01-13-04-01,13-01-13-04-02,13-01-14-01-01,13-01-14-01-02,13-01-14-02-01,13-01-14-02-02,13-01-14-03-01,13-01-14-03-02,13-01-14-04-01,13-01-14-04-02,13-01-15-01-01,13-01-15-03-01,13-01-15-03-02,13-01-15-04-01,13-01-15-04-02,13-01-16-01-01,13-01-16-01-02,13-01-16-02-01,13-01-16-02-02,13-01-16-03-01,13-01-16-03-02,13-01-16-04-01,13-01-16-04-02,13-02-01-01-01,13-02-01-01-02,13-02-01-02-01,13-02-01-02-02,13-02-01-03-01,13-02-01-03-02,13-02-01-04-01,13-02-01-04-02,13-02-02-01-01,13-02-02-01-02,13-02-02-02-01,13-02-02-02-02,13-02-02-03-01,13-02-02-03-02,13-02-02-04-01,13-02-02-04-02,13-02-03-01-01,13-02-03-01-02,13-02-03-02-01,13-02-03-02-02,13-02-03-03-01,13-02-03-03-02,13-02-03-04-01,13-02-03-04-02,13-02-04-01-01,13-02-04-01-02,13-02-04-02-01,13-02-04-02-02,13-02-04-03-01,13-02-04-03-02,13-02-04-04-01,13-02-04-04-02,13-02-05-01-01,13-02-05-01-02,13-02-05-02-01,13-02-05-02-02,13-02-05-03-01,13-02-05-03-02,13-02-05-04-01,13-02-05-04-02,13-02-06-01-01,13-02-06-01-02,13-02-06-02-01,13-02-06-02-02,13-02-06-03-01,13-02-06-03-02,13-02-06-04-01,13-02-06-04-02,13-02-07-01-01,13-02-07-01-02,13-02-07-02-01,13-02-07-02-02,13-02-07-03-01,13-02-07-03-02,13-02-07-04-01,13-02-07-04-02,13-02-08-01-01,13-02-08-01-02,13-02-08-02-01,13-02-08-02-02,13-02-08-03-01,13-02-08-03-02,13-02-08-04-01,13-02-08-04-02,13-02-09-01-01,13-02-09-01-02,13-02-09-02-01,13-02-09-02-02,13-02-09-03-01,13-02-09-03-02,13-02-09-04-01,13-02-09-04-02,13-02-10-01-01,13-02-10-01-02,13-02-10-02-01,13-02-10-02-02,13-02-10-03-01,13-02-10-03-02,13-02-10-04-01,13-02-10-04-02,13-02-11-01-01,13-02-11-01-02,13-02-11-02-01,13-02-11-02-02,13-02-11-03-01,13-02-11-03-02,13-02-11-04-01,13-02-11-04-02,13-02-12-01-01,13-02-12-01-02,13-02-12-02-01,13-02-12-02-02,13-02-12-03-01,13-02-12-03-02,13-02-12-04-01,13-02-12-04-02,13-02-13-01-01,13-02-13-01-02,13-02-13-02-01,13-02-13-02-02,13-02-13-03-01,13-02-13-03-02,13-02-13-04-01,13-02-13-04-02,13-02-14-01-01,13-02-14-01-02,13-02-14-02-01,13-02-14-02-02,13-02-14-03-01,13-02-14-03-02,13-02-14-04-01,13-02-14-04-02,13-03-01-01-01,13-03-01-01-02,13-03-01-02-01,13-03-01-02-02,13-03-01-03-01,13-03-01-03-02,13-03-01-04-01,13-03-01-04-02,13-03-02-01-01,13-03-02-01-02,13-03-02-02-01,13-03-02-02-02,13-03-02-03-01,13-03-02-03-02,13-03-02-04-01,13-03-02-04-02,13-03-03-01-01,13-03-03-01-02,13-03-03-02-01,13-03-03-02-02,13-03-03-03-01,13-03-03-03-02,13-03-03-04-01,13-03-03-04-02,13-03-04-01-01,13-03-04-01-02,13-03-04-02-01,13-03-04-02-02,13-03-04-03-01,13-03-04-03-02,13-03-04-04-01,13-03-04-04-02,13-03-05-01-01,13-03-05-01-02,13-03-05-02-01,13-03-05-02-02,13-03-05-03-01,13-03-05-03-02,13-03-05-04-01,13-03-05-04-02,13-03-06-01-01,13-03-06-01-02,13-03-06-02-01,13-03-06-02-02,13-03-06-03-01,13-03-06-03-02,13-03-06-04-01,13-03-06-04-02,13-03-07-01-01,13-03-07-01-02,13-03-07-02-01,13-03-07-02-02,13-03-07-03-01,13-03-07-03-02,13-03-07-04-01,13-03-07-04-02,13-03-08-01-01,13-03-08-01-02,13-03-08-02-01,13-03-08-02-02,13-03-08-03-01,13-03-08-03-02,13-03-08-04-01,13-03-08-04-02,13-03-09-01-01,13-03-09-01-02,13-03-09-02-01,13-03-09-02-02,13-03-09-03-01,13-03-09-03-02,13-03-09-04-01,13-03-09-04-02,13-03-10-01-01,13-03-10-01-02,13-03-10-02-01,13-03-10-02-02,13-03-10-03-01,13-03-10-03-02,13-03-10-04-01,13-03-10-04-02,13-03-11-01-01,13-03-11-01-02,13-03-11-02-01,13-03-11-02-02,13-03-11-03-01,13-03-11-03-02,13-03-11-04-01,13-03-11-04-02,13-03-12-01-01,13-03-12-01-02,13-03-12-02-01,13-03-12-02-02,13-03-12-03-01,13-03-12-03-02,13-03-12-04-01,13-03-12-04-02,13-03-13-01-01,13-03-13-01-02,13-03-13-02-01,13-03-13-02-02,13-03-13-03-01,13-03-13-03-02,13-03-13-04-01,13-03-13-04-02,13-03-14-01-01,13-03-14-01-02,13-03-14-02-01,13-03-14-02-02,13-03-14-03-01,13-03-14-03-02,13-03-14-04-01,13-03-14-04-02,13-04-01-01-01,13-04-01-01-02,13-04-01-02-01,13-04-01-02-02,13-04-01-03-01,13-04-01-03-02,13-04-01-04-01,13-04-01-04-02,13-04-02-01-01,13-04-02-01-02,13-04-02-02-01,13-04-02-02-02,13-04-02-03-01,13-04-02-03-02,13-04-02-04-01,13-04-02-04-02,13-04-03-01-01,13-04-03-01-02,13-04-03-02-01,13-04-03-02-02,13-04-03-03-01,13-04-03-03-02,13-04-03-04-01,13-04-03-04-02,13-04-04-01-01,13-04-04-01-02,13-04-04-02-01,13-04-04-02-02,13-04-04-03-01,13-04-04-03-02,13-04-04-04-01,13-04-04-04-02,13-04-05-01-01,13-04-05-01-02,13-04-05-02-01,13-04-05-02-02,13-04-05-03-01,13-04-05-03-02,13-04-05-04-01,13-04-05-04-02,13-04-06-01-01,13-04-06-01-02,13-04-06-02-01,13-04-06-02-02,13-04-06-03-01,13-04-06-03-02,13-04-06-04-01,13-04-06-04-02,13-04-07-01-01,13-04-07-01-02,13-04-07-02-01,13-04-07-02-02,13-04-07-03-01,13-04-07-03-02,13-04-07-04-01,13-04-07-04-02,13-04-08-01-01,13-04-08-01-02,13-04-08-02-01,13-04-08-02-02,13-04-08-03-01,13-04-08-03-02,13-04-08-04-01,13-04-08-04-02,13-04-09-01-01,13-04-09-01-02,13-04-09-02-01,13-04-09-02-02,13-04-09-03-01,13-04-09-03-02,13-04-09-04-01,13-04-09-04-02,13-04-10-01-01,13-04-10-01-02,13-04-10-02-01,13-04-10-02-02,13-04-10-03-01,13-04-10-03-02,13-04-10-04-01,13-04-10-04-02,13-04-11-01-01,13-04-11-01-02,13-04-11-02-01,13-04-11-02-02,13-04-11-03-01,13-04-11-03-02,13-04-11-04-01,13-04-11-04-02,13-04-12-01-01,13-04-12-01-02,13-04-12-02-01,13-04-12-02-02,13-04-12-03-01,13-04-12-03-02,13-04-12-04-01,13-04-12-04-02,13-04-13-01-01,13-04-13-01-02,13-04-13-02-01,13-04-13-02-02,13-04-13-03-01,13-04-13-03-02,13-04-13-04-01,13-04-13-04-02,13-04-14-01-01,13-04-14-01-02,13-04-14-02-01,13-04-14-02-02,13-04-14-03-01,13-04-14-03-02,13-04-14-04-01,13-04-14-04-02,13-05-01-01-01,13-05-01-01-02,13-05-01-02-01,13-05-01-02-02,13-05-01-03-01,13-05-01-03-02,13-05-01-04-01,13-05-01-04-02,13-05-02-01-01,13-05-02-01-02,13-05-02-02-01,13-05-02-02-02,13-05-02-03-01,13-05-02-03-02,13-05-02-04-01,13-05-02-04-02,13-05-03-01-01,13-05-03-01-02,13-05-03-02-01,13-05-03-02-02,13-05-03-03-01,13-05-03-03-02,13-05-03-04-01,13-05-03-04-02,13-05-04-01-01,13-05-04-01-02,13-05-04-02-01,13-05-04-02-02,13-05-04-03-01,13-05-04-04-01,13-05-04-04-02,13-05-05-01-01,13-05-05-01-02,13-05-05-02-01,13-05-05-02-02,13-05-05-03-01,13-05-05-03-02,13-05-05-04-01,13-05-05-04-02,13-05-06-01-01,13-05-06-01-02,13-05-06-02-01,13-05-06-02-02,13-05-06-03-01,13-05-06-03-02,13-05-06-04-01,13-05-06-04-02,13-05-07-01-01,13-05-07-01-02,13-05-07-02-01,13-05-07-02-02,13-05-07-03-01,13-05-07-03-02,13-05-07-04-01,13-05-07-04-02,13-05-08-01-01,13-05-08-01-02,13-05-08-02-01,13-05-08-02-02,13-05-08-03-01,13-05-08-03-02,13-05-08-04-01,13-05-08-04-02,13-05-09-01-01,13-05-09-01-02,13-05-09-02-01,13-05-09-02-02,13-05-09-03-01,13-05-09-03-02,13-05-09-04-01,13-05-09-04-02,13-05-10-01-01,13-05-10-01-02,13-05-10-02-01,13-05-10-02-02,13-05-10-03-01,13-05-10-03-02,13-05-10-04-01,13-05-10-04-02,13-05-11-01-01,13-05-11-01-02,13-05-11-02-01,13-05-11-02-02,13-05-11-03-01,13-05-11-03-02,13-05-11-04-01,13-05-11-04-02,13-05-12-01-01,13-05-12-01-02,13-05-12-02-01,13-05-12-02-02,13-05-12-03-01,13-05-12-03-02,13-05-12-04-01,13-05-12-04-02,13-05-13-01-01,13-05-13-01-02,13-05-13-02-01,13-05-13-02-02,13-05-13-03-01,13-05-13-03-02,13-05-13-04-01,13-05-13-04-02,13-05-14-01-01,13-05-14-01-02,13-05-14-02-01,13-05-14-02-02,13-05-14-03-01,13-05-14-03-02,13-05-14-04-01,13-05-14-04-02,13-06-01-01-01,13-06-01-01-02,13-06-01-02-01,13-06-01-02-02,13-06-01-03-01,13-06-01-03-02,13-06-01-04-01,13-06-01-04-02,13-06-02-01-01,13-06-02-01-02,13-06-02-02-01,13-06-02-02-02,13-06-02-03-01,13-06-02-03-02,13-06-02-04-01,13-06-02-04-02,13-06-03-01-01,13-06-03-01-02,13-06-03-02-01,13-06-03-02-02,13-06-03-03-01,13-06-03-03-02,13-06-03-04-01,13-06-03-04-02,13-06-04-01-01,13-06-04-01-02,13-06-04-02-01,13-06-04-02-02,13-06-04-03-01,13-06-04-03-02,13-06-04-04-01,13-06-04-04-02,13-06-05-01-01,13-06-05-01-02,13-06-05-02-01,13-06-05-02-02,13-06-05-03-01,13-06-05-03-02,13-06-05-04-01,13-06-05-04-02,13-06-06-01-01,13-06-06-01-02,13-06-06-02-01,13-06-06-03-02,13-05-04-03-02,13-06-06-02-02,13-06-06-03-01,13-06-06-04-01,13-06-06-04-02,13-06-07-01-01,13-06-07-01-02,13-06-07-02-01,13-06-07-02-02,13-06-07-03-01,13-06-07-03-02,13-06-07-04-01,13-06-07-04-02,13-06-08-01-01,13-06-08-01-02,13-06-08-02-01,13-06-08-02-02,13-06-08-03-01,13-06-08-03-02,13-06-08-04-01,13-06-08-04-02,13-06-09-01-01,13-06-09-01-02,13-06-09-02-01,13-06-09-02-02,13-06-09-03-01,13-06-09-03-02,13-06-09-04-01,13-06-09-04-02,13-06-10-01-01,13-06-10-01-02,13-06-10-02-01,13-06-10-02-02,13-06-10-03-01,13-06-10-03-02,13-06-10-04-01,13-06-10-04-02,13-06-11-01-01,13-06-11-01-02,13-06-11-02-01,13-06-11-02-02,13-06-11-03-01,13-06-11-03-02,13-06-11-04-01,13-06-11-04-02,13-06-12-01-01,13-06-12-01-02,13-06-12-02-01,13-06-12-02-02,13-06-12-03-01,13-06-12-03-02,13-06-12-04-01,13-06-12-04-02,13-06-13-01-01,13-06-13-01-02,13-06-13-02-01,13-06-13-02-02,13-06-13-03-01,13-06-13-03-02,13-06-13-04-01,13-06-13-04-02,13-06-14-01-01,13-06-14-03-01,13-06-14-01-02,13-06-14-02-01,13-06-14-02-02,13-06-14-03-02,13-06-14-04-01,13-06-14-04-02,13-07-01-01-01,13-07-01-01-02,13-07-01-02-01,13-07-01-02-02,13-07-01-03-01,13-07-01-03-02,13-07-01-04-01,13-07-01-04-02,13-07-02-01-01,13-07-02-01-02,13-07-02-02-01,13-07-02-02-02,13-07-02-03-01,13-07-02-03-02,13-07-02-04-01,13-07-02-04-02,13-07-03-01-01,13-07-03-01-02,13-07-03-02-01,13-07-03-02-02,13-07-03-03-01,13-07-03-03-02,13-07-03-04-01,13-07-03-04-02,13-07-04-01-01,13-07-04-01-02,13-07-04-02-01,13-07-04-02-02,13-07-04-03-01,13-07-04-03-02,13-07-04-04-01,13-07-04-04-02,13-07-05-01-01,13-07-05-01-02,13-07-05-02-01,13-07-05-02-02,13-07-05-03-01,13-07-05-03-02,13-07-05-04-01,13-07-05-04-02,13-07-06-01-01,13-07-06-01-02,13-07-06-02-01,13-07-06-02-02,13-07-06-03-01,13-07-06-03-02,13-07-06-04-01,13-07-06-04-02,13-07-07-01-01,13-07-07-01-02,13-07-07-02-01,13-07-07-02-02,13-07-07-03-01,13-07-07-03-02,13-07-07-04-01,13-07-07-04-02,13-07-08-01-01,13-07-08-01-02,13-07-08-02-01,13-07-08-02-02,13-07-08-03-01,13-07-08-03-02,13-07-08-04-01,13-07-08-04-02,13-07-09-01-01,13-07-09-01-02,13-07-09-02-01,13-07-09-02-02,13-07-09-03-01,13-07-09-03-02,13-07-09-04-01,13-07-09-04-02,13-07-10-01-01,13-07-10-01-02,13-07-10-02-01,13-07-10-02-02,13-07-10-03-01,13-07-10-03-02,13-07-10-04-01,13-07-10-04-02,13-07-11-01-01,13-07-11-01-02,13-07-11-02-01,13-07-11-02-02,13-07-11-03-01,13-07-11-03-02,13-07-12-01-02,13-07-11-04-01,13-07-11-04-02,13-07-12-01-01,13-07-12-02-01,13-07-12-02-02,13-07-12-03-01,13-07-12-03-02,13-07-12-04-01,13-07-12-04-02,13-07-13-01-01,13-07-13-01-02,13-07-13-02-01,13-07-13-02-02,13-07-13-03-01,13-07-13-03-02,13-07-13-04-01,13-07-13-04-02,13-07-14-01-01,13-07-14-01-02,13-07-14-02-01,13-07-14-02-02,13-07-14-03-01,13-07-14-03-02,13-07-14-04-01,13-07-14-04-02,13-07-15-01-01,13-07-15-01-02,13-07-15-02-01,13-07-15-02-02,13-07-15-03-01,13-07-15-03-02,13-08-01-01-02,13-07-15-04-01,13-07-15-04-02,13-08-01-01-01,13-08-01-02-01,13-08-01-02-02,13-08-01-03-01,13-08-01-03-02,13-08-01-04-01,13-08-01-04-02,13-08-02-01-01,13-08-02-01-02,13-08-02-02-01,13-08-02-02-02,13-08-02-03-01,13-08-02-03-02,13-08-02-04-01,13-08-02-04-02,13-08-03-01-01,13-08-03-01-02,13-08-03-02-01,13-08-03-02-02,13-08-03-03-01,13-08-03-03-02,13-08-03-04-01,13-08-03-04-02,13-08-04-01-01,13-08-04-01-02,13-08-04-02-01,13-08-04-02-02,13-08-04-03-01,13-08-04-03-02,13-08-04-04-01,13-08-04-04-02,13-08-05-01-01,13-08-05-01-02,13-08-05-02-01,13-08-05-02-02,13-08-05-03-01,13-08-05-03-02,13-08-05-04-01,13-08-05-04-02,13-08-06-01-01,13-08-06-01-02,13-08-06-02-01,13-08-06-02-02,13-08-06-03-01,13-08-06-03-02,13-08-06-04-01,13-08-06-04-02,13-08-07-01-01,13-08-07-01-02,13-08-07-02-01,13-08-07-02-02,13-08-07-03-01,13-08-07-03-02,13-08-07-04-01,13-08-07-04-02,13-08-08-01-01,13-08-08-01-02,13-08-08-02-01,13-08-08-02-02,13-08-08-04-02,13-08-08-03-01,13-08-08-03-02,13-08-08-04-01,13-08-09-01-01,13-08-09-01-02,13-08-09-02-01,13-08-09-02-02,13-08-09-03-01,13-08-09-03-02,13-08-09-04-01,13-08-09-04-02,13-08-10-01-01,13-08-10-01-02,13-08-10-02-01,13-08-10-02-02,13-08-10-03-01,13-08-10-03-02,13-08-10-04-01,13-08-10-04-02,13-08-11-01-01,13-08-11-01-02,13-08-11-02-01,13-08-11-02-02,13-08-11-03-01,13-08-11-03-02,13-08-11-04-01,13-08-11-04-02,13-08-12-01-01,13-08-12-01-02,13-08-12-02-01,13-08-12-02-02,13-08-12-03-01,13-08-12-03-02,13-08-12-04-01,13-08-12-04-02,13-08-13-01-01,13-08-13-01-02,13-08-13-02-01,13-08-13-02-02,13-08-13-03-01,13-08-13-03-02,13-08-13-04-01,13-08-13-04-02,13-08-14-01-01,13-08-14-01-02,13-08-14-02-01,13-08-14-02-02,13-08-14-03-01,13-08-14-03-02,13-08-14-04-01,13-08-14-04-02,13-09-01-01-01,13-09-01-01-02,13-09-01-02-01,13-09-01-02-02,13-09-01-03-01,13-09-01-03-02,13-09-01-04-01,13-09-01-04-02,13-09-02-01-01,13-09-02-01-02,13-09-02-02-01,13-09-02-04-01,13-09-02-02-02,13-09-02-03-01,13-09-02-03-02,13-09-02-04-02,13-09-03-01-01,13-09-03-01-02,13-09-03-02-01,13-09-03-02-02,13-09-03-03-01,13-09-03-03-02,13-09-03-04-01,13-09-03-04-02,13-09-04-01-01,13-09-04-01-02,13-09-04-02-01,13-09-04-02-02,13-09-04-03-01,13-09-04-03-02,13-09-04-04-01,13-09-04-04-02,13-09-05-01-01,13-09-05-01-02,13-09-05-02-01,13-09-05-02-02,13-09-05-03-01,13-09-05-03-02,13-09-05-04-01,13-09-05-04-02,13-09-06-01-01,13-09-06-01-02,13-09-06-02-01,13-09-06-02-02,13-09-06-03-01,13-09-06-03-02,13-09-06-04-01,13-09-06-04-02,13-09-07-01-01,13-09-07-01-02,13-09-07-02-01,13-09-07-02-02,13-09-07-03-01,13-09-07-03-02,13-09-07-04-01,13-09-07-04-02,13-09-08-01-01,13-09-08-01-02,13-09-08-02-01,13-09-08-02-02,13-09-08-03-01,13-09-08-03-02,13-09-08-04-01,13-09-08-04-02,13-09-09-01-01,13-09-09-01-02,13-09-09-02-01,13-09-09-02-02,13-09-09-03-01,13-09-09-03-02,13-09-09-04-01,13-09-09-04-02,13-09-10-01-01,13-09-10-01-02,13-09-10-02-01,13-09-10-02-02,13-09-10-03-01,13-09-10-03-02,13-09-10-04-01,13-09-10-04-02,13-09-11-01-01,13-09-11-01-02,13-09-11-02-01,13-09-11-02-02,13-09-11-03-01,13-09-11-03-02,13-09-11-04-01,13-09-11-04-02,13-09-12-01-01,13-09-12-01-02,13-09-12-02-01,13-09-12-02-02,13-09-12-03-01,13-09-12-03-02,13-09-12-04-01,13-09-12-04-02,13-09-13-01-01,13-09-13-01-02,13-09-13-02-01,13-09-13-02-02,13-09-13-03-01,13-09-13-03-02,13-09-13-04-01,13-09-13-04-02,13-09-14-01-01,13-09-14-01-02,13-09-14-02-01,13-09-14-02-02,13-09-14-03-01,13-09-14-03-02,13-09-14-04-01,13-09-14-04-02,13-10-01-01-01,13-10-01-01-02,13-10-01-02-01,13-10-01-02-02,13-10-01-03-01,13-10-01-03-02,13-10-01-04-01,13-10-01-04-02,13-10-02-01-01,13-10-02-01-02,13-10-02-02-01,13-10-02-02-02,13-10-02-03-01,13-10-02-03-02,13-10-02-04-01,13-10-02-04-02,13-10-03-01-01,13-10-03-01-02,13-10-03-02-01,13-10-03-02-02,13-10-03-03-01,13-10-03-03-02,13-10-03-04-01,13-10-03-04-02,13-10-04-01-01,13-10-04-01-02,13-10-04-02-01,13-10-04-02-02,13-10-04-03-01,13-10-04-03-02,13-10-04-04-01,13-10-04-04-02,13-10-05-01-01,13-10-05-01-02,13-10-05-02-01,13-10-05-02-02,13-10-05-03-01,13-10-05-03-02,13-10-05-04-01,13-10-05-04-02,13-10-06-01-01,13-10-06-01-02,13-10-06-02-01,13-10-06-02-02,13-10-06-03-01,13-10-06-03-02,13-10-06-04-01,13-10-06-04-02,13-10-07-01-01,13-10-07-01-02,13-10-07-02-01,13-10-07-02-02,13-10-07-03-01,13-10-07-03-02,13-10-07-04-01,13-10-07-04-02,13-10-08-01-01,13-10-08-01-02,13-10-08-02-01,13-10-08-02-02,13-10-08-03-01,13-10-08-03-02,13-10-08-04-01,13-10-08-04-02,13-10-09-01-01,13-10-09-01-02,13-10-09-02-01,13-10-09-02-02,13-10-09-03-01,13-10-09-03-02,13-10-09-04-01,13-10-09-04-02,13-10-10-01-01,13-10-10-01-02,13-10-10-02-01,13-10-10-02-02,13-10-10-03-01,13-10-10-03-02,13-10-10-04-01,13-10-10-04-02,13-10-11-01-01,13-10-11-01-02,13-10-11-02-01,13-10-11-02-02,13-10-11-03-01,13-10-11-03-02,13-10-11-04-01,13-10-11-04-02,13-10-12-01-01,13-10-12-01-02,13-10-12-02-01,13-10-12-02-02,13-10-12-03-01,13-10-12-03-02,13-10-12-04-01,13-10-12-04-02,13-10-13-01-01,13-10-13-01-02,13-10-13-02-01,13-10-13-02-02,13-10-13-03-01,13-10-13-03-02,13-10-13-04-01,13-10-13-04-02,13-10-14-01-01,13-10-14-01-02,13-10-14-02-01,13-10-14-02-02,13-10-14-03-01,13-10-14-03-02,13-10-14-04-01,13-10-14-04-02,13-11-01-01-01,13-11-01-01-02,13-11-01-02-01,13-11-01-02-02,13-11-01-03-01,13-11-01-03-02,13-11-01-04-01,13-11-01-04-02,13-11-02-01-01,13-11-02-01-02,13-11-02-02-01,13-11-02-02-02,13-11-02-03-01,13-11-02-03-02,13-11-02-04-01,13-11-02-04-02,13-11-03-01-01,13-11-03-01-02,13-11-03-02-01,13-11-03-02-02,13-11-03-03-01,13-11-03-03-02,13-11-03-04-01,13-11-03-04-02,13-11-04-01-01,13-11-04-01-02,13-11-04-02-01,13-11-04-02-02,13-11-04-03-01,13-11-04-03-02,13-11-04-04-01,13-11-04-04-02,13-11-05-01-01,13-11-05-01-02,13-11-05-02-01,13-11-05-02-02,13-11-05-03-01,13-11-05-03-02,13-11-05-04-01,13-11-05-04-02,13-11-06-01-01,13-11-06-01-02,13-11-06-02-01,13-11-06-02-02,13-11-06-03-01,13-11-06-03-02,13-11-06-04-01,13-11-06-04-02,13-11-07-01-01,13-11-07-01-02,13-11-07-02-01,13-11-07-02-02,13-11-07-03-01,13-11-07-03-02,13-11-07-04-01,13-11-07-04-02,13-11-08-01-01,13-11-08-01-02,13-11-08-02-01,13-11-08-02-02,13-11-08-03-01,13-11-08-03-02,13-11-08-04-01,13-11-08-04-02,13-11-09-01-01,13-11-09-01-02,13-11-09-02-01,13-11-09-02-02,13-11-09-03-01,13-11-09-03-02,13-11-09-04-01,13-11-09-04-02,13-11-10-01-01,13-11-10-01-02,13-11-10-02-01,13-11-10-02-02,13-11-10-03-01,13-11-10-03-02,13-11-10-04-01,13-11-10-04-02,13-11-11-01-01,13-11-11-01-02,13-11-11-02-01,13-11-11-02-02,13-11-11-03-01,13-11-11-03-02,13-11-11-04-01,13-11-11-04-02,13-11-12-01-01,13-11-12-01-02,13-11-12-02-01,13-11-12-02-02,13-11-12-03-01,13-11-12-03-02,13-11-12-04-01,13-11-12-04-02,13-11-13-01-01,13-11-13-01-02,13-11-13-02-01,13-11-13-02-02,13-11-13-03-01,13-11-13-03-02,13-11-13-04-01,13-11-13-04-02,13-11-14-01-01,13-11-14-01-02,13-11-14-02-01,13-11-14-02-02,13-11-14-03-01,13-11-14-03-02,13-11-14-04-01,13-11-14-04-02,13-12-01-01-01,13-12-01-01-02,13-12-01-02-01,13-12-01-02-02,13-12-01-03-01,13-12-01-03-02,13-12-01-04-01,13-12-01-04-02,13-12-02-01-01,13-12-02-01-02,13-12-02-02-01,13-12-02-02-02,13-12-02-03-01,13-12-02-03-02,13-12-02-04-01,13-12-02-04-02,13-12-03-01-01,13-12-03-01-02,13-12-03-02-01,13-12-03-02-02,13-12-03-03-01,13-12-03-03-02,13-12-03-04-01,13-12-03-04-02,13-12-04-01-01,13-12-04-01-02,13-12-04-02-01,13-12-04-02-02,13-12-04-03-01,13-12-04-03-02,13-12-04-04-01,13-12-04-04-02,13-12-05-01-01,13-12-05-01-02,13-12-05-02-01,13-12-05-02-02,13-12-05-03-01,13-12-05-03-02,13-12-05-04-01,13-12-05-04-02,13-12-06-01-01,13-12-06-01-02,13-12-06-02-01,13-12-06-02-02,13-12-06-03-01,13-12-06-03-02,13-12-06-04-01,13-12-06-04-02,13-12-07-01-01,13-12-07-01-02,13-12-07-02-01,13-12-07-02-02,13-12-07-03-01,13-12-07-03-02,13-12-07-04-01,13-12-07-04-02,13-12-08-01-01,13-12-08-01-02,13-12-08-02-01,13-12-08-02-02,13-12-08-03-01,13-12-08-03-02,13-12-08-04-01,13-12-08-04-02,13-12-09-01-01,13-12-09-01-02,13-12-09-02-01,13-12-09-02-02,13-12-09-03-01,13-12-09-03-02,13-12-09-04-01,13-12-09-04-02,13-12-10-01-02,13-12-10-03-01,13-12-10-03-02,13-12-10-04-01,13-12-10-04-02,13-12-11-01-01,13-12-11-01-02,13-12-11-02-01,13-12-11-02-02,13-12-11-03-01,13-12-11-03-02,13-12-11-04-01,13-12-11-04-02,13-12-12-01-01,13-12-12-01-02,13-12-12-02-01,13-12-12-02-02,13-12-12-03-01,13-12-12-03-02,13-12-12-04-01,13-12-12-04-02,13-12-13-01-01,13-12-13-01-02,13-12-13-02-01,13-12-13-02-02,13-12-13-03-01,13-12-13-03-02,13-12-13-04-01,13-12-13-04-02,13-12-14-01-01,13-12-14-01-02,13-12-14-02-01,13-12-14-02-02,13-12-14-03-01,13-12-14-03-02,13-12-14-04-01,13-12-14-04-02,13-12-15-01-01,13-12-15-01-02,13-12-15-02-01,13-12-15-02-02,13-12-15-03-01,13-12-15-03-02,13-12-15-04-01,13-12-15-04-02,13-50-01,13-60-01,13-60-02,13-06-15-01-01,13-06-15-01-02,13-06-15-02-01,13-06-15-02-02,13-06-15-03-01,13-06-15-03-02,13-06-15-04-01,13-06-15-04-02,13-99-00,13-99-01,13-01-07-01-01,13-01-07-02-01,13-01-07-02-02,13-01-15-01-02,13-01-15-02-01,13-01-15-02-02,13-12-10-01-01,13-12-10-02-01,13-12-10-02-02</t>
   </si>
   <si>
+    <t>仓库五</t>
+  </si>
+  <si>
     <t>17-21-01,17-22-01,17-23-01,17-24-01,17-25-01,17-26-01,17-27-01,17-28-01,17-29-01,17-30-01,17-31-01,17-32-01,17-33-01,17-34-01,17-35-01,17-36-01,17-37-01,17-38-01,17-39-01,17-40-01,17-41-01,17-42-01,17-21-02,17-99-00,17-99-01,17-36-02,17-36-04,17-36-03,17-36-05,17-39-02,17-39-03,17-39-04,17-39-05,17-40-02,17-40-03,17-40-04,17-40-05,17-28-02,17-28-03,17-28-04,17-28-05,17-29-02,17-29-03,17-29-04,17-29-05,17-35-02,17-35-03,17-35-04,17-35-05,17-37-02,17-37-03,17-37-04,17-37-05,17-42-02,17-42-03,17-42-04,17-42-05,17-21-03,17-21-04,17-21-05,17-22-02,17-22-03,17-22-04,17-22-05,17-23-02,17-23-03,17-23-04,17-23-05,17-24-02,17-24-03,17-24-04,17-24-05,17-25-02,17-25-03,17-25-04,17-25-05,17-26-02,17-26-03,17-26-04,17-26-05,17-38-02,17-38-03,17-38-04,17-38-05,17-41-02,17-41-03,17-41-04,17-41-05</t>
   </si>
   <si>
@@ -97,6 +107,9 @@
     <t>22-21-01,22-22-01,22-23-01,22-24-01,22-25-01,22-26-01,22-27-01,22-28-01,22-29-01,22-30-01,22-31-01,22-32-01,22-33-01,22-34-01,22-35-01,22-36-01,22-37-01,22-38-01,22-39-01,22-40-01,22-41-01,22-99-00,22-99-01,22-36-02,22-36-03,22-36-04,22-36-05,22-24-02,22-24-03,22-24-04,22-24-05,22-25-02,22-25-03,22-25-04,22-25-05,22-26-02,22-26-03,22-26-04,22-26-05,22-21-02,22-38-02,22-38-03,22-38-04,22-38-05,22-39-02,22-39-03,22-39-04,22-39-05</t>
   </si>
   <si>
+    <t>仓库六</t>
+  </si>
+  <si>
     <t>23-01-01-01-01,23-01-01-01-02,23-01-01-02-01,23-01-01-02-02,23-01-01-03-01,23-01-01-03-02,23-01-01-04-01,23-01-01-04-02,23-01-02-01-01,23-01-02-01-02,23-01-02-01-03,23-01-02-01-04,23-01-02-02-01,23-01-02-02-02,23-01-02-02-03,23-01-02-02-04,23-01-02-02-05,23-01-02-02-06,23-01-02-02-07,23-01-02-02-08,23-01-02-02-09,23-01-02-02-10,23-01-02-02-11,23-01-02-02-12,23-01-02-02-13,23-01-02-02-14,23-01-02-02-15,23-01-02-02-16,23-01-02-02-17,23-01-02-02-18,23-01-02-02-19,23-01-02-02-20,23-01-02-03-01,23-01-02-03-02,23-01-02-03-03,23-01-02-03-04,23-01-02-04-01,23-01-02-04-02,23-01-02-04-03,23-01-02-04-04,23-01-03-01-01,23-01-03-01-02,23-01-03-01-03,23-01-03-01-04,23-01-03-02-01,23-01-03-02-02,23-01-03-02-03,23-01-03-02-04,23-01-03-03-01,23-01-03-03-02,23-01-03-03-03,23-01-03-03-04,23-01-03-04-01,23-01-03-04-02,23-01-03-04-03,23-01-03-04-04,23-01-04-01-01,23-01-04-01-02,23-01-04-01-03,23-01-04-01-04,23-01-04-02-01,23-01-04-02-02,23-01-04-02-03,23-01-04-02-04,23-01-04-03-01,23-01-04-03-02,23-01-04-03-03,23-01-04-03-04,23-01-04-04-01,23-01-04-04-02,23-01-04-04-03,23-01-04-04-04,23-01-05-01-01,23-01-05-01-02,23-01-05-01-03,23-01-05-01-04,23-01-05-02-01,23-01-05-02-02,23-01-05-02-03,23-01-05-02-04,23-01-05-03-01,23-01-05-03-02,23-01-05-03-03,23-01-05-03-04,23-01-05-04-01,23-01-05-04-02,23-01-05-04-03,23-01-05-04-04,23-01-06-01-01,23-01-06-01-02,23-01-06-01-03,23-01-06-01-04,23-01-06-02-01,23-01-06-02-02,23-01-06-02-03,23-01-06-02-04,23-01-06-03-01,23-01-06-03-02,23-01-06-03-03,23-01-06-03-04,23-01-06-04-01,23-01-06-04-02,23-01-06-04-03,23-01-06-04-04,23-01-07-01-01,23-01-07-01-02,23-01-07-01-03,23-01-07-01-04,23-01-07-02-01,23-01-07-02-02,23-01-07-02-03,23-01-07-02-04,23-01-07-03-01,23-01-07-03-02,23-01-07-03-03,23-01-07-03-04,23-01-07-04-01,23-01-07-04-02,23-01-07-04-03,23-01-07-04-04,23-01-08-01-01,23-01-08-01-02,23-01-08-01-03,23-01-08-01-04,23-01-08-02-01,23-01-08-02-02,23-01-08-02-03,23-01-08-02-04,23-01-08-03-01,23-01-08-03-02,23-01-08-03-03,23-01-08-03-04,23-01-08-04-01,23-01-08-04-02,23-01-08-04-03,23-01-08-04-04,23-01-09-01-01,23-01-09-01-02,23-01-09-01-03,23-01-09-01-04,23-01-09-02-01,23-01-09-02-02,23-01-09-02-03,23-01-09-02-04,23-01-09-03-02,23-01-09-03-03,23-01-09-03-04,23-01-09-04-01,23-01-09-04-02,23-01-09-04-03,23-01-09-04-04,23-21-01,23-21-02,23-21-03,23-21-04,23-21-05,23-21-06,23-22-01,23-23-01,23-24-01,23-25-01,23-26-01,23-27-01,23-28-01,23-29-01,23-30-01,23-31-01,23-32-01,23-33-01,23-34-01,23-35-01,23-35-02,23-35-03,23-35-04,23-35-05,23-35-06,23-99-01,23-99-00,23-01-09-03-01,23-34-03,23-34-04,23-34-05,23-01-02-02-22,23-01-02-02-25,23-01-02-02-27,23-34-02,23-01-02-02-21,23-01-02-02-23,23-01-02-02-24,23-01-02-02-26,23-01-02-02-28,23-01-02-02-30,23-01-02-02-31,23-01-02-02-32,23-01-02-02-29</t>
   </si>
   <si>
@@ -115,6 +128,9 @@
     <t>27-07-01-01-01,27-07-01-01-02,27-07-01-01-03,27-07-01-01-04,27-07-01-02-01,27-07-01-02-02,27-07-01-02-03,27-07-01-02-04,27-07-01-03-01,27-07-01-03-02,27-07-01-03-03,27-07-01-03-04,27-07-01-04-01,27-07-01-04-02,27-07-01-04-03,27-07-01-04-04,27-07-02-01-01,27-07-02-01-02,27-07-02-01-03,27-07-02-01-04,27-07-02-02-01,27-07-02-02-02,27-07-02-02-03,27-07-02-02-04,27-07-02-03-01,27-07-02-03-02,27-07-02-03-03,27-07-02-03-04,27-07-02-04-01,27-07-02-04-02,27-07-02-04-03,27-07-02-04-04,27-07-03-01-01,27-07-03-01-02,27-07-03-01-03,27-07-03-01-04,27-07-03-02-01,27-07-03-02-02,27-07-03-02-03,27-07-03-02-04,27-07-03-03-01,27-07-03-03-02,27-07-03-03-03,27-07-03-03-04,27-07-03-04-01,27-07-03-04-02,27-07-04-01-02,27-07-03-04-03,27-07-03-04-04,27-07-04-01-01,27-07-04-01-03,27-07-04-01-04,27-07-04-02-01,27-07-04-02-02,27-07-04-02-03,27-07-04-02-04,27-07-04-03-01,27-07-04-03-02,27-07-04-03-03,27-07-04-03-04,27-07-04-04-01,27-07-04-04-02,27-07-04-04-03,27-07-04-04-04,27-07-05-01-01,27-07-05-01-02,27-07-05-01-03,27-07-05-01-04,27-07-05-02-01,27-07-05-02-02,27-07-05-02-03,27-07-05-02-04,27-07-05-03-01,27-07-05-03-02,27-07-05-03-03,27-07-05-03-04,27-07-05-04-01,27-07-06-01-01,27-07-05-04-02,27-07-05-04-03,27-07-05-04-04,27-07-06-01-02,27-07-06-01-03,27-07-06-01-04,27-07-06-02-01,27-07-06-02-02,27-07-06-02-03,27-07-06-02-04,27-07-06-03-01,27-07-06-03-02,27-07-06-03-03,27-07-06-03-04,27-07-06-04-01,27-07-06-04-02,27-07-06-04-03,27-07-06-04-04,27-07-07-01-01,27-07-07-01-02,27-07-07-01-03,27-07-07-01-04,27-07-07-02-01,27-07-07-02-02,27-07-07-02-03,27-07-07-02-04,27-07-07-03-01,27-07-07-03-02,27-07-07-03-03,27-07-07-03-04,27-07-07-04-04,27-07-07-04-01,27-07-07-04-02,27-07-07-04-03,27-07-08-01-01,27-07-08-01-02,27-07-08-01-03,27-07-08-01-04,27-07-08-02-01,27-07-08-02-02,27-07-08-02-03,27-07-08-02-04,27-07-08-03-01,27-07-08-03-02,27-07-08-03-03,27-07-08-03-04,27-07-08-04-01,27-07-08-04-02,27-07-08-04-03,27-07-08-04-04,27-07-08-03-05,27-07-08-03-06,27-07-08-03-07,27-07-08-03-08,27-07-08-03-09,27-07-08-03-10,27-07-08-03-11,27-07-08-03-12,27-07-08-03-13,27-07-08-03-14,27-07-08-03-15,27-07-08-03-16,27-07-08-03-17,27-07-08-03-18,27-07-08-03-19,27-07-08-03-20,27-21-01,27-22-01,27-23-01,27-24-01,27-25-01,27-26-01,27-27-01,27-28-01,27-29-01,27-30-01,27-31-01,27-32-01,27-33-01,27-99-01,27-99-00,27-07-01-02-05,27-07-01-02-07,27-07-01-02-08,27-07-01-02-09,27-07-01-02-11,27-07-01-02-14,27-07-01-02-16,27-07-01-02-17,27-07-01-02-19,27-07-01-02-06,27-07-01-02-18,27-07-01-02-10,27-07-01-02-12,27-07-01-02-13,27-07-01-02-15,27-07-01-02-20,27-07-01-02-21,27-07-01-02-22,27-07-01-02-23,27-07-01-02-24,27-07-01-02-25,27-07-01-02-26,27-07-01-02-27,27-07-01-02-28,27-07-01-02-29,27-07-01-02-30,27-07-01-02-31,27-24-02,27-23-02,27-24-03,27-23-03</t>
   </si>
   <si>
+    <t>仓库七</t>
+  </si>
+  <si>
     <t>28-01-01-01-01,28-01-01-01-02,28-01-01-01-03,28-01-01-01-04,28-01-01-02-01,28-01-01-02-02,28-01-01-02-03,28-01-01-02-04,28-01-01-03-01,28-01-01-03-02,28-01-01-03-03,28-01-01-03-04,28-01-01-04-01,28-01-01-04-02,28-01-01-04-03,28-01-01-04-04,28-01-02-01-01,28-01-02-01-02,28-01-02-01-03,28-01-02-01-04,28-01-02-02-01,28-01-02-02-02,28-01-02-02-03,28-01-02-02-04,28-01-02-03-01,28-01-02-03-02,28-01-02-03-03,28-01-02-03-04,28-01-02-04-01,28-01-02-04-02,28-01-02-04-03,28-01-02-04-04,28-01-03-01-01,28-01-03-01-02,28-01-03-01-03,28-01-03-01-04,28-01-03-02-01,28-01-03-02-02,28-01-03-02-03,28-01-03-02-04,28-01-03-03-01,28-01-03-03-02,28-01-03-03-03,28-01-03-03-04,28-01-03-04-01,28-01-03-04-02,28-22-01,28-01-03-04-03,28-01-03-04-04,28-21-01,28-23-01,28-24-01,28-25-01,28-26-01,28-99-00,28-99-01,28-21-02,28-21-03,28-21-04,28-21-05,28-26-05</t>
   </si>
   <si>
@@ -127,19 +143,136 @@
     <t>1,2</t>
   </si>
   <si>
+    <t>4.3,4.2</t>
+  </si>
+  <si>
     <t>30-21-01,30-22-01,30-23-01,30-24-01,30-25-01,30-26-01,30-27-01,30-99-00,30-99-01,30-21-02,30-21-03,30-21-04,30-21-05</t>
   </si>
   <si>
     <t>31-21-01,31-22-01,31-23-01,31-24-01,31-25-01,31-26-01,31-27-01,31-99-00,31-99-01,31-21-02,31-21-03,31-21-04,31-21-05</t>
   </si>
   <si>
+    <t>8,5.1</t>
+  </si>
+  <si>
     <t>32-01-01-01-01,32-01-01-01-02,32-01-01-01-03,32-01-01-01-04,32-01-01-02-01,32-01-01-02-02,32-01-01-02-03,32-01-01-02-04,32-01-01-03-01,32-01-01-03-02,32-01-01-03-03,32-01-01-03-04,32-01-01-04-01,32-01-01-04-02,32-01-01-04-03,32-01-01-04-04,32-01-01-02-05,32-01-01-02-06,32-01-01-02-07,32-01-01-02-08,32-01-01-02-09,32-01-01-02-10,32-01-01-02-11,32-01-01-02-12,32-01-01-02-13,32-01-01-02-14,32-01-01-02-15,32-01-01-02-16,32-01-01-02-17,32-01-01-02-18,32-01-01-02-19,32-01-01-02-20,32-01-02-01-01,32-01-02-01-02,32-01-02-01-03,32-01-02-01-04,32-01-03-01-01,32-01-03-01-02,32-01-03-01-03,32-01-03-01-04,32-01-02-03-01,32-01-02-03-02,32-01-02-03-03,32-01-02-03-04,32-01-02-04-01,32-01-02-04-02,32-01-02-04-03,32-01-02-04-04,32-01-03-03-01,32-01-03-03-02,32-01-03-03-03,32-01-03-03-04,32-01-03-04-01,32-01-03-04-02,32-01-03-04-03,32-01-03-04-04,32-21-01,32-22-01,32-23-01,32-24-01,32-25-01,32-26-01,32-99-00,32-99-01,32-21-02,32-21-03,32-21-04,32-21-05</t>
   </si>
   <si>
     <t>7,8</t>
   </si>
   <si>
+    <t>4.1,4.2</t>
+  </si>
+  <si>
     <t>33-21-01,33-22-01,33-23-01,33-24-01,33-25-01,33-26-01,33-99-00,33-99-01,33-21-02,33-21-03,33-21-04,33-21-05</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>仓库四</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>仓库一</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
 </sst>
 </file>
@@ -152,7 +285,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +294,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -644,173 +805,190 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1133,674 +1311,750 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="74.75" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.3333333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.6666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.8888888888889" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="9.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="24" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="24.4166666666667" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="30.6666666666667" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
     <col min="12" max="12" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="30.75" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="4" customFormat="1" ht="30.75" customHeight="1" spans="1:9">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="11">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="11">
+        <v>113</v>
+      </c>
+      <c r="F2" s="11">
+        <v>19</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="11">
+        <v>16</v>
+      </c>
+      <c r="I2" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B3" s="11">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="11">
+        <v>225</v>
+      </c>
+      <c r="F3" s="11">
+        <v>37.9</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="11">
+        <v>16</v>
+      </c>
+      <c r="I3" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="11">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="11">
+        <v>225</v>
+      </c>
+      <c r="F4" s="11">
+        <v>37.9</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="11">
+        <v>16</v>
+      </c>
+      <c r="I4" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="11">
+        <v>507</v>
+      </c>
+      <c r="F5" s="11">
+        <v>120</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="11">
+        <v>16</v>
+      </c>
+      <c r="I5" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="11">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="11">
+        <v>658</v>
+      </c>
+      <c r="F6" s="11">
+        <v>55</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="11">
+        <v>17</v>
+      </c>
+      <c r="I6" s="11">
+        <v>9</v>
+      </c>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="11">
+        <v>12</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="11">
+        <v>658</v>
+      </c>
+      <c r="F7" s="11">
+        <v>55</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="11">
+        <v>17</v>
+      </c>
+      <c r="I7" s="11">
+        <v>9</v>
+      </c>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="11">
+        <v>13</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1977</v>
+      </c>
+      <c r="F8" s="11">
+        <v>332</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="11">
+        <v>17</v>
+      </c>
+      <c r="I8" s="11">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="11">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="11">
+        <v>243</v>
+      </c>
+      <c r="F9" s="11">
+        <v>40.8</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="11">
+        <v>6</v>
+      </c>
+      <c r="I9" s="15">
+        <v>3</v>
+      </c>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="11">
+        <v>18</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="11">
+        <v>243</v>
+      </c>
+      <c r="F10" s="11">
+        <v>40.8</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="11">
+        <v>6</v>
+      </c>
+      <c r="I10" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="11">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="11">
+        <v>243</v>
+      </c>
+      <c r="F11" s="11">
+        <v>40.8</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="11">
+        <v>6</v>
+      </c>
+      <c r="I11" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="11">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="11">
+        <v>243</v>
+      </c>
+      <c r="F12" s="11">
+        <v>40.8</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="11">
+        <v>6</v>
+      </c>
+      <c r="I12" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11">
+        <v>21</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="11">
+        <v>243</v>
+      </c>
+      <c r="F13" s="11">
+        <v>40.8</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="11">
+        <v>6</v>
+      </c>
+      <c r="I13" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="11">
+        <v>22</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="11">
+        <v>243</v>
+      </c>
+      <c r="F14" s="11">
+        <v>40.8</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="11">
+        <v>6</v>
+      </c>
+      <c r="I14" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="11">
+        <v>23</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="11">
+        <v>149</v>
+      </c>
+      <c r="F15" s="11">
+        <v>25</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="11">
+        <v>24</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="11">
+        <v>149</v>
+      </c>
+      <c r="F16" s="11">
+        <v>25</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="11">
+        <v>17</v>
+      </c>
+      <c r="I16" s="11">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="11">
+        <v>25</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="11">
+        <v>149</v>
+      </c>
+      <c r="F17" s="11">
+        <v>25</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="11">
+        <v>6</v>
+      </c>
+      <c r="I17" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="11">
+        <v>26</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="11">
+        <v>149</v>
+      </c>
+      <c r="F18" s="11">
+        <v>25</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="11">
+        <v>17</v>
+      </c>
+      <c r="I18" s="11">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="11">
+        <v>27</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="11">
+        <v>149</v>
+      </c>
+      <c r="F19" s="11">
+        <v>25</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="11">
+        <v>17</v>
+      </c>
+      <c r="I19" s="11">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="11">
+        <v>28</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="11">
+        <v>59</v>
+      </c>
+      <c r="F20" s="11">
         <v>10</v>
       </c>
-      <c r="E2" s="6">
-        <v>113</v>
-      </c>
-      <c r="F2" s="6">
-        <v>19</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="G20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="H20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="15">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="11">
+        <v>29</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="11">
+        <v>59</v>
+      </c>
+      <c r="F21" s="11">
         <v>10</v>
       </c>
-      <c r="E3" s="6">
-        <v>225</v>
-      </c>
-      <c r="F3" s="6">
-        <v>37.9</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="G21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="11">
+        <v>12</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="11">
+        <v>30</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="11">
+        <v>59</v>
+      </c>
+      <c r="F22" s="11">
+        <v>10</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="11">
+        <v>15</v>
+      </c>
+      <c r="I22" s="11">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="11">
+        <v>31</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="11">
+        <v>59</v>
+      </c>
+      <c r="F23" s="11">
+        <v>10</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="11">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="I23" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="11">
+        <v>32</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="11">
+        <v>59</v>
+      </c>
+      <c r="F24" s="11">
         <v>10</v>
       </c>
-      <c r="E4" s="6">
-        <v>225</v>
-      </c>
-      <c r="F4" s="6">
-        <v>37.9</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="G24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="11">
+        <v>33</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="11">
+        <v>59</v>
+      </c>
+      <c r="F25" s="11">
         <v>10</v>
       </c>
-      <c r="E5" s="6">
-        <v>507</v>
-      </c>
-      <c r="F5" s="6">
-        <v>120</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="6">
-        <v>658</v>
-      </c>
-      <c r="F6" s="6">
-        <v>55</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="6">
-        <v>17</v>
-      </c>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="G25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6">
-        <v>658</v>
-      </c>
-      <c r="F7" s="6">
-        <v>55</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="6">
-        <v>17</v>
-      </c>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="H25" s="11">
         <v>13</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1977</v>
-      </c>
-      <c r="F8" s="6">
-        <v>332</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="6">
-        <v>17</v>
-      </c>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <v>17</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="6">
-        <v>243</v>
-      </c>
-      <c r="F9" s="6">
-        <v>40.8</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="6">
-        <v>6</v>
-      </c>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="6">
-        <v>243</v>
-      </c>
-      <c r="F10" s="6">
-        <v>40.8</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="6">
-        <v>243</v>
-      </c>
-      <c r="F11" s="6">
-        <v>40.8</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="6">
-        <v>243</v>
-      </c>
-      <c r="F12" s="6">
-        <v>40.8</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="6">
-        <v>21</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="6">
-        <v>243</v>
-      </c>
-      <c r="F13" s="6">
-        <v>40.8</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="6">
-        <v>22</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="6">
-        <v>243</v>
-      </c>
-      <c r="F14" s="6">
-        <v>40.8</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="6">
-        <v>23</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="6">
-        <v>149</v>
-      </c>
-      <c r="F15" s="6">
-        <v>25</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="6">
-        <v>24</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="6">
-        <v>149</v>
-      </c>
-      <c r="F16" s="6">
-        <v>25</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="6">
-        <v>25</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="6">
-        <v>149</v>
-      </c>
-      <c r="F17" s="6">
-        <v>25</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="6">
-        <v>26</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="6">
-        <v>149</v>
-      </c>
-      <c r="F18" s="6">
-        <v>25</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="6">
-        <v>27</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="6">
-        <v>149</v>
-      </c>
-      <c r="F19" s="6">
-        <v>25</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="6">
-        <v>28</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="6">
-        <v>59</v>
-      </c>
-      <c r="F20" s="6">
-        <v>10</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="6">
-        <v>29</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="6">
-        <v>59</v>
-      </c>
-      <c r="F21" s="6">
-        <v>10</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="6">
-        <v>30</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="6">
-        <v>59</v>
-      </c>
-      <c r="F22" s="6">
-        <v>10</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>31</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="6">
-        <v>59</v>
-      </c>
-      <c r="F23" s="6">
-        <v>10</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="6">
-        <v>32</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="6">
-        <v>59</v>
-      </c>
-      <c r="F24" s="6">
-        <v>10</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="6">
-        <v>33</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="6">
-        <v>59</v>
-      </c>
-      <c r="F25" s="6">
-        <v>10</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="6">
-        <v>13</v>
+      <c r="I25" s="11">
+        <v>5.1</v>
       </c>
     </row>
   </sheetData>
@@ -1808,4 +2062,301 @@
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>